--- a/apps/web/static/용역자_등록_양식.xlsx
+++ b/apps/web/static/용역자_등록_양식.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4973257-75E4-4FFB-97CF-607EA37A228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAAB184-C9D5-473C-9AB9-B95B202BED53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="25290" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1635" yWindow="1125" windowWidth="24495" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역자명단" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="152">
   <si>
     <t>순번</t>
   </si>
@@ -466,6 +466,14 @@
   </si>
   <si>
     <t>황민정5</t>
+  </si>
+  <si>
+    <t>비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계사 계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -889,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="N2" sqref="N2:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -904,18 +912,20 @@
     <col min="5" max="5" width="12.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="8" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,31 +948,37 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -984,32 +1000,38 @@
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>126</v>
+      <c r="H2" s="3">
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1031,32 +1053,38 @@
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>126</v>
+      <c r="H3" s="3">
+        <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1078,32 +1106,38 @@
       <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1125,32 +1159,38 @@
       <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1172,32 +1212,38 @@
       <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1219,32 +1265,38 @@
       <c r="G7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1266,32 +1318,38 @@
       <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1313,32 +1371,38 @@
       <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1360,32 +1424,38 @@
       <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1407,32 +1477,38 @@
       <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1454,32 +1530,38 @@
       <c r="G12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1501,32 +1583,38 @@
       <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1548,32 +1636,38 @@
       <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1595,32 +1689,38 @@
       <c r="G15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1642,32 +1742,38 @@
       <c r="G16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1689,32 +1795,38 @@
       <c r="G17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1736,32 +1848,38 @@
       <c r="G18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1783,32 +1901,38 @@
       <c r="G19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1830,32 +1954,38 @@
       <c r="G20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1877,32 +2007,38 @@
       <c r="G21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1924,28 +2060,34 @@
       <c r="G22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
